--- a/SESUserManage.xlsx
+++ b/SESUserManage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7954B941-543F-4767-A639-C8A32199B684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309EEF5-276D-41E5-900E-B333793A39C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +622,10 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -648,7 +657,10 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -680,7 +692,10 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
@@ -712,7 +727,10 @@
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -744,7 +762,10 @@
         <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>

--- a/SESUserManage.xlsx
+++ b/SESUserManage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309EEF5-276D-41E5-900E-B333793A39C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D5C127-0ECC-4E30-8E3E-D179D8E534F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J7"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,10 +622,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>

--- a/SESUserManage.xlsx
+++ b/SESUserManage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D5C127-0ECC-4E30-8E3E-D179D8E534F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65295A83-9661-4DC8-B53D-E727BF778FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
